--- a/Azure and AWS VM types.xlsx
+++ b/Azure and AWS VM types.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chgeuer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uneidel\Documents\github\cloudinstancesizing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10635" windowHeight="6105"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="171">
   <si>
     <t>AWS</t>
   </si>
@@ -499,6 +499,45 @@
   </si>
   <si>
     <t>Azure Compute Units (ACU)</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>H16</t>
+  </si>
+  <si>
+    <t>H8m</t>
+  </si>
+  <si>
+    <t>H16m</t>
+  </si>
+  <si>
+    <t>H16r</t>
+  </si>
+  <si>
+    <t>H16mr</t>
+  </si>
+  <si>
+    <t>8 CPU</t>
+  </si>
+  <si>
+    <t>16 CPU</t>
+  </si>
+  <si>
+    <t>Intel E5-2667 V3 3.2 GHz  / 8 NIC / High Network Bandwith</t>
+  </si>
+  <si>
+    <t>Intel E5-2667 V3 3.2 GHz  / 8 NIC / VERY High Network Bandwith</t>
+  </si>
+  <si>
+    <t>Intel E5-2667 V3 3.2 GHz  / 8 NIC / VERY High Network Bandwith / Dedicated RDMA Network</t>
+  </si>
+  <si>
+    <t>compute-intensive</t>
   </si>
 </sst>
 </file>
@@ -587,8 +626,8 @@
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -620,7 +659,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -647,7 +692,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -943,31 +988,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N88"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomRight" activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="18" style="15" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="6.875" style="7" customWidth="1"/>
     <col min="9" max="9" width="11" style="8" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1"/>
-    <col min="12" max="12" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.5703125" customWidth="1"/>
-    <col min="14" max="14" width="115.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" style="8" customWidth="1"/>
+    <col min="11" max="11" width="23.75" customWidth="1"/>
+    <col min="12" max="12" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.625" customWidth="1"/>
+    <col min="14" max="14" width="115.75" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1887,7 +1932,7 @@
         <v>50</v>
       </c>
       <c r="K28" s="9" t="str">
-        <f t="shared" ref="K28:K88" si="2">_xlfn.CONCAT("(",H28,"*",I28,")=",(H28*I28), " GB ",J28)</f>
+        <f t="shared" ref="K28:K94" si="2">_xlfn.CONCAT("(",H28,"*",I28,")=",(H28*I28), " GB ",J28)</f>
         <v>(1*80)=80 GB SSD</v>
       </c>
       <c r="M28" s="4" t="s">
@@ -2494,7 +2539,7 @@
         <v>2</v>
       </c>
       <c r="F44" s="15">
-        <f t="shared" ref="F44:F50" si="3">100*E44</f>
+        <f t="shared" ref="F44:F49" si="3">100*E44</f>
         <v>200</v>
       </c>
       <c r="G44" s="3">
@@ -2774,7 +2819,7 @@
         <v>2</v>
       </c>
       <c r="F51" s="15">
-        <f t="shared" ref="F51:F58" si="4">160*E51</f>
+        <f t="shared" ref="F51:F57" si="4">160*E51</f>
         <v>320</v>
       </c>
       <c r="G51" s="2">
@@ -4314,6 +4359,222 @@
       <c r="L88" s="16"/>
       <c r="N88" s="6" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>53</v>
+      </c>
+      <c r="B89" t="s">
+        <v>170</v>
+      </c>
+      <c r="C89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D89" t="s">
+        <v>159</v>
+      </c>
+      <c r="E89" t="s">
+        <v>165</v>
+      </c>
+      <c r="G89" s="2">
+        <v>56</v>
+      </c>
+      <c r="H89" s="7">
+        <v>1</v>
+      </c>
+      <c r="I89" s="8">
+        <v>1000</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K89" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>(1*1000)=1000 GB SSD</v>
+      </c>
+      <c r="N89" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>53</v>
+      </c>
+      <c r="B90" t="s">
+        <v>170</v>
+      </c>
+      <c r="C90" t="s">
+        <v>158</v>
+      </c>
+      <c r="D90" t="s">
+        <v>160</v>
+      </c>
+      <c r="E90" t="s">
+        <v>166</v>
+      </c>
+      <c r="G90" s="2">
+        <v>112</v>
+      </c>
+      <c r="H90" s="7">
+        <v>1</v>
+      </c>
+      <c r="I90" s="8">
+        <v>2000</v>
+      </c>
+      <c r="J90" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K90" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>(1*2000)=2000 GB SSD</v>
+      </c>
+      <c r="N90" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>53</v>
+      </c>
+      <c r="B91" t="s">
+        <v>170</v>
+      </c>
+      <c r="C91" t="s">
+        <v>158</v>
+      </c>
+      <c r="D91" t="s">
+        <v>161</v>
+      </c>
+      <c r="E91" t="s">
+        <v>165</v>
+      </c>
+      <c r="G91" s="2">
+        <v>112</v>
+      </c>
+      <c r="H91" s="7">
+        <v>1</v>
+      </c>
+      <c r="I91" s="8">
+        <v>1000</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K91" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>(1*1000)=1000 GB SSD</v>
+      </c>
+      <c r="N91" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>53</v>
+      </c>
+      <c r="B92" t="s">
+        <v>170</v>
+      </c>
+      <c r="C92" t="s">
+        <v>158</v>
+      </c>
+      <c r="D92" t="s">
+        <v>162</v>
+      </c>
+      <c r="E92" t="s">
+        <v>166</v>
+      </c>
+      <c r="G92" s="2">
+        <v>224</v>
+      </c>
+      <c r="H92" s="7">
+        <v>1</v>
+      </c>
+      <c r="I92" s="8">
+        <v>2000</v>
+      </c>
+      <c r="J92" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K92" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>(1*2000)=2000 GB SSD</v>
+      </c>
+      <c r="N92" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>53</v>
+      </c>
+      <c r="B93" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93" t="s">
+        <v>158</v>
+      </c>
+      <c r="D93" t="s">
+        <v>163</v>
+      </c>
+      <c r="E93" t="s">
+        <v>166</v>
+      </c>
+      <c r="G93" s="2">
+        <v>112</v>
+      </c>
+      <c r="H93" s="7">
+        <v>1</v>
+      </c>
+      <c r="I93" s="8">
+        <v>2000</v>
+      </c>
+      <c r="J93" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K93" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>(1*2000)=2000 GB SSD</v>
+      </c>
+      <c r="N93" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>53</v>
+      </c>
+      <c r="B94" t="s">
+        <v>170</v>
+      </c>
+      <c r="C94" t="s">
+        <v>158</v>
+      </c>
+      <c r="D94" t="s">
+        <v>164</v>
+      </c>
+      <c r="E94" t="s">
+        <v>166</v>
+      </c>
+      <c r="G94" s="2">
+        <v>224</v>
+      </c>
+      <c r="H94" s="7">
+        <v>1</v>
+      </c>
+      <c r="I94" s="8">
+        <v>2000</v>
+      </c>
+      <c r="J94" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K94" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>(1*2000)=2000 GB SSD</v>
+      </c>
+      <c r="N94" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -4331,7 +4592,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
